--- a/excel/compose.xlsx
+++ b/excel/compose.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>神兽id</t>
   </si>
@@ -55,22 +55,28 @@
     <t>level</t>
   </si>
   <si>
-    <t>mat1_id</t>
-  </si>
-  <si>
-    <t>mat1_n</t>
-  </si>
-  <si>
-    <t>mat2_id</t>
-  </si>
-  <si>
-    <t>mat2_n</t>
-  </si>
-  <si>
-    <t>mat3_id</t>
-  </si>
-  <si>
-    <t>mat3_n</t>
+    <t>matid1</t>
+  </si>
+  <si>
+    <t>matn1</t>
+  </si>
+  <si>
+    <t>matid2</t>
+  </si>
+  <si>
+    <t>matn2</t>
+  </si>
+  <si>
+    <t>matid3</t>
+  </si>
+  <si>
+    <t>matn3</t>
+  </si>
+  <si>
+    <t>matid4</t>
+  </si>
+  <si>
+    <t>matn4</t>
   </si>
   <si>
     <t>1</t>
@@ -256,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1455,10 +1461,10 @@
         <v>19</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
@@ -1470,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4">
         <v>10</v>
@@ -1495,19 +1501,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4">
         <v>20</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
       <c r="H4" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1524,19 +1530,19 @@
         <v>2</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4">
         <v>15</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -1553,19 +1559,19 @@
         <v>3</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1582,19 +1588,19 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1611,25 +1617,25 @@
         <v>5</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" t="s" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
@@ -1644,13 +1650,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4">
         <v>20</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4">
         <v>15</v>
@@ -1669,19 +1675,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4">
         <v>30</v>
       </c>
       <c r="F10" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
       </c>
       <c r="H10" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1698,19 +1704,19 @@
         <v>2</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4">
         <v>20</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -1727,19 +1733,19 @@
         <v>3</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="H12" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -1756,25 +1762,25 @@
         <v>4</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s" s="3">
         <v>29</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -1789,25 +1795,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" t="s" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14" t="s" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -1822,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4">
         <v>25</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4">
         <v>20</v>
@@ -1847,19 +1853,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
       </c>
       <c r="H16" t="s" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -1876,19 +1882,19 @@
         <v>2</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4">
         <v>25</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
       </c>
       <c r="H17" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -1905,25 +1911,25 @@
         <v>3</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
       </c>
       <c r="H18" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
       </c>
       <c r="J18" t="s" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1938,25 +1944,25 @@
         <v>4</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
       </c>
       <c r="F19" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
       </c>
       <c r="J19" t="s" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -1971,25 +1977,25 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" t="s" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="J20" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -2004,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4">
         <v>30</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21" s="4">
         <v>25</v>
@@ -2029,19 +2035,19 @@
         <v>1</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22" s="4">
         <v>50</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G22" s="4">
         <v>5</v>
       </c>
       <c r="H22" t="s" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I22" s="4">
         <v>2</v>
@@ -2058,19 +2064,19 @@
         <v>2</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="4">
         <v>10</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I23" s="4">
         <v>2</v>
@@ -2087,25 +2093,25 @@
         <v>3</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
       </c>
       <c r="H24" t="s" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
       </c>
       <c r="J24" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K24" s="4">
         <v>2</v>
@@ -2120,25 +2126,25 @@
         <v>4</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
       </c>
       <c r="H25" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
       </c>
       <c r="J25" t="s" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K25" s="4">
         <v>2</v>
@@ -2153,25 +2159,25 @@
         <v>5</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4">
         <v>2</v>
       </c>
       <c r="H26" t="s" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I26" s="4">
         <v>2</v>
       </c>
       <c r="J26" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
